--- a/Outputs/QTAR_logReport(C).xlsx
+++ b/Outputs/QTAR_logReport(C).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
   <si>
     <t>Countries</t>
   </si>
@@ -49,283 +49,343 @@
     <t>QKS</t>
   </si>
   <si>
-    <t>0.98(0.3)</t>
-  </si>
-  <si>
-    <t>0.0024(0.9)</t>
-  </si>
-  <si>
-    <t>-1.42(0.1)*</t>
-  </si>
-  <si>
-    <t>1.83(0.9)</t>
-  </si>
-  <si>
-    <t>0.96(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0048(0.1)*</t>
-  </si>
-  <si>
-    <t>-1.59(0.2)</t>
-  </si>
-  <si>
-    <t>7.63(0.0)***</t>
-  </si>
-  <si>
-    <t>0.93(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0043(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.2(0.0)***</t>
-  </si>
-  <si>
-    <t>3.44(0.1)*</t>
-  </si>
-  <si>
-    <t>0.95(0.2)</t>
-  </si>
-  <si>
-    <t>0.0005(0.5)</t>
-  </si>
-  <si>
-    <t>-2.49(0.0)***</t>
-  </si>
-  <si>
-    <t>2.49(0.3)</t>
-  </si>
-  <si>
-    <t>0.98(0.6)</t>
-  </si>
-  <si>
-    <t>-0.005(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.68(0.9)</t>
-  </si>
-  <si>
-    <t>3.3(0.1)*</t>
-  </si>
-  <si>
-    <t>0.0014(0.9)</t>
-  </si>
-  <si>
-    <t>-1.83(0.1)*</t>
-  </si>
-  <si>
-    <t>0.96(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0033(0.1)*</t>
-  </si>
-  <si>
-    <t>-3.35(0.1)*</t>
-  </si>
-  <si>
-    <t>0.97(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0034(0.0)***</t>
-  </si>
-  <si>
-    <t>-3.44(0.0)***</t>
-  </si>
-  <si>
-    <t>0.97(0.4)</t>
-  </si>
-  <si>
-    <t>0.0006(0.7)</t>
-  </si>
-  <si>
-    <t>-2.18(0.3)</t>
-  </si>
-  <si>
-    <t>0.99(0.6)</t>
-  </si>
-  <si>
-    <t>-0.0029(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.73(0.7)</t>
-  </si>
-  <si>
-    <t>0.99(0.9)</t>
-  </si>
-  <si>
-    <t>0.0003(0.6)</t>
-  </si>
-  <si>
-    <t>-0.59(0.9)</t>
+    <t>0.98(0.506)</t>
+  </si>
+  <si>
+    <t>0.0024(0.837)</t>
+  </si>
+  <si>
+    <t>-1.42(0.411)</t>
+  </si>
+  <si>
+    <t>1.83(0.819)</t>
+  </si>
+  <si>
+    <t>0.96(0.405)</t>
+  </si>
+  <si>
+    <t>-0.0048(0.06)*</t>
+  </si>
+  <si>
+    <t>-1.59(0.211)</t>
+  </si>
+  <si>
+    <t>7.63(0.001)***</t>
+  </si>
+  <si>
+    <t>0.93(0.032)**</t>
+  </si>
+  <si>
+    <t>-0.0043(0.038)**</t>
+  </si>
+  <si>
+    <t>-2.2(0.131)</t>
+  </si>
+  <si>
+    <t>3.44(0.207)</t>
+  </si>
+  <si>
+    <t>0.95(0.19)</t>
+  </si>
+  <si>
+    <t>0.0005(0.435)</t>
+  </si>
+  <si>
+    <t>-2.49(0.13)</t>
+  </si>
+  <si>
+    <t>2.49(0.554)</t>
+  </si>
+  <si>
+    <t>0.98(0.724)</t>
+  </si>
+  <si>
+    <t>-0.005(0.059)*</t>
+  </si>
+  <si>
+    <t>-0.68(0.727)</t>
+  </si>
+  <si>
+    <t>3.3(0.235)</t>
   </si>
   <si>
     <t>0.98(0.4)</t>
   </si>
   <si>
-    <t>-0.0025(0.1)*</t>
+    <t>0.0014(0.834)</t>
+  </si>
+  <si>
+    <t>-1.83(0.306)</t>
+  </si>
+  <si>
+    <t>0.96(0.236)</t>
+  </si>
+  <si>
+    <t>-0.0033(0.032)**</t>
+  </si>
+  <si>
+    <t>-3.35(0.04)**</t>
+  </si>
+  <si>
+    <t>0.97(0.07)*</t>
+  </si>
+  <si>
+    <t>-0.0034(0.016)**</t>
+  </si>
+  <si>
+    <t>-3.44(0.05)**</t>
+  </si>
+  <si>
+    <t>0.97(0.228)</t>
+  </si>
+  <si>
+    <t>0.0006(0.523)</t>
+  </si>
+  <si>
+    <t>-2.18(0.218)</t>
+  </si>
+  <si>
+    <t>0.99(0.726)</t>
+  </si>
+  <si>
+    <t>-0.0029(0.077)*</t>
+  </si>
+  <si>
+    <t>-0.73(0.735)</t>
+  </si>
+  <si>
+    <t>0.99(0.736)</t>
+  </si>
+  <si>
+    <t>0.0003(0.612)</t>
+  </si>
+  <si>
+    <t>-0.59(0.777)</t>
+  </si>
+  <si>
+    <t>0.98(0.424)</t>
+  </si>
+  <si>
+    <t>-0.0025(0.037)**</t>
   </si>
   <si>
     <t>-1.9(0.3)</t>
   </si>
   <si>
-    <t>0.98(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0019(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.66(0.2)</t>
-  </si>
-  <si>
-    <t>0.99(0.8)</t>
-  </si>
-  <si>
-    <t>-0.0001(0.3)</t>
-  </si>
-  <si>
-    <t>-0.85(0.8)</t>
-  </si>
-  <si>
-    <t>-1.02(0.6)</t>
-  </si>
-  <si>
-    <t>1.0(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0001(0.2)</t>
-  </si>
-  <si>
-    <t>0.17(1.0)</t>
-  </si>
-  <si>
-    <t>0.97(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0031(0.0)***</t>
-  </si>
-  <si>
-    <t>-3.84(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0014(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.45(0.4)</t>
-  </si>
-  <si>
-    <t>0.97(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0001(0.4)</t>
-  </si>
-  <si>
-    <t>-2.26(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0012(0.1)*</t>
-  </si>
-  <si>
-    <t>-1.87(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0(0.4)</t>
-  </si>
-  <si>
-    <t>-0.61(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0035(0.0)***</t>
-  </si>
-  <si>
-    <t>-5.51(0.0)***</t>
-  </si>
-  <si>
-    <t>0.98(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0011(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.1(0.4)</t>
-  </si>
-  <si>
-    <t>-0.0004(0.2)</t>
-  </si>
-  <si>
-    <t>-1.94(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0005(0.1)*</t>
-  </si>
-  <si>
-    <t>-3.3(0.0)***</t>
-  </si>
-  <si>
-    <t>0.99(0.7)</t>
-  </si>
-  <si>
-    <t>-0.0004(0.3)</t>
-  </si>
-  <si>
-    <t>-0.78(0.6)</t>
-  </si>
-  <si>
-    <t>-0.0037(0.0)***</t>
-  </si>
-  <si>
-    <t>-4.63(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0008(0.4)</t>
-  </si>
-  <si>
-    <t>-2.11(0.5)</t>
-  </si>
-  <si>
-    <t>0.98(0.5)</t>
-  </si>
-  <si>
-    <t>-0.0007(0.2)</t>
-  </si>
-  <si>
-    <t>-1.88(0.4)</t>
-  </si>
-  <si>
-    <t>-2.86(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0011(0.2)</t>
-  </si>
-  <si>
-    <t>-0.49(1.0)</t>
+    <t>0.98(0.098)*</t>
+  </si>
+  <si>
+    <t>-0.0019(0.039)**</t>
+  </si>
+  <si>
+    <t>-2.66(0.145)</t>
+  </si>
+  <si>
+    <t>0.99(0.601)</t>
+  </si>
+  <si>
+    <t>-0.0001(0.282)</t>
+  </si>
+  <si>
+    <t>-0.85(0.659)</t>
+  </si>
+  <si>
+    <t>0.99(0.588)</t>
+  </si>
+  <si>
+    <t>-0.0025(0.057)*</t>
+  </si>
+  <si>
+    <t>-1.02(0.625)</t>
+  </si>
+  <si>
+    <t>1.0(0.936)</t>
+  </si>
+  <si>
+    <t>-0.0001(0.459)</t>
+  </si>
+  <si>
+    <t>0.17(0.929)</t>
+  </si>
+  <si>
+    <t>0.97(0.185)</t>
+  </si>
+  <si>
+    <t>-0.0031(0.014)**</t>
+  </si>
+  <si>
+    <t>-3.84(0.037)**</t>
+  </si>
+  <si>
+    <t>0.98(0.067)*</t>
+  </si>
+  <si>
+    <t>-0.0014(0.066)*</t>
+  </si>
+  <si>
+    <t>-2.45(0.176)</t>
+  </si>
+  <si>
+    <t>0.97(0.283)</t>
+  </si>
+  <si>
+    <t>-0.0001(0.312)</t>
+  </si>
+  <si>
+    <t>-2.26(0.254)</t>
+  </si>
+  <si>
+    <t>0.98(0.313)</t>
+  </si>
+  <si>
+    <t>-0.0012(0.11)</t>
+  </si>
+  <si>
+    <t>-1.87(0.288)</t>
+  </si>
+  <si>
+    <t>0.99(0.776)</t>
+  </si>
+  <si>
+    <t>-0.0(0.477)</t>
+  </si>
+  <si>
+    <t>-0.61(0.798)</t>
+  </si>
+  <si>
+    <t>0.96(0.129)</t>
+  </si>
+  <si>
+    <t>-0.0035(0.009)***</t>
+  </si>
+  <si>
+    <t>-5.51(0.004)***</t>
+  </si>
+  <si>
+    <t>0.98(0.141)</t>
+  </si>
+  <si>
+    <t>-0.0011(0.087)*</t>
+  </si>
+  <si>
+    <t>-2.1(0.236)</t>
+  </si>
+  <si>
+    <t>0.98(0.39)</t>
+  </si>
+  <si>
+    <t>-0.0004(0.245)</t>
+  </si>
+  <si>
+    <t>-1.94(0.416)</t>
+  </si>
+  <si>
+    <t>0.98(0.17)</t>
+  </si>
+  <si>
+    <t>-0.0005(0.306)</t>
+  </si>
+  <si>
+    <t>-3.3(0.083)*</t>
+  </si>
+  <si>
+    <t>0.99(0.694)</t>
+  </si>
+  <si>
+    <t>-0.0004(0.326)</t>
+  </si>
+  <si>
+    <t>-0.78(0.719)</t>
+  </si>
+  <si>
+    <t>0.96(0.131)</t>
+  </si>
+  <si>
+    <t>-0.0037(0.003)***</t>
+  </si>
+  <si>
+    <t>-4.63(0.009)***</t>
+  </si>
+  <si>
+    <t>0.98(0.174)</t>
+  </si>
+  <si>
+    <t>-0.0008(0.185)</t>
+  </si>
+  <si>
+    <t>-2.11(0.296)</t>
+  </si>
+  <si>
+    <t>0.98(0.435)</t>
+  </si>
+  <si>
+    <t>-0.0007(0.193)</t>
+  </si>
+  <si>
+    <t>-1.88(0.458)</t>
+  </si>
+  <si>
+    <t>0.98(0.181)</t>
+  </si>
+  <si>
+    <t>0.0003(0.643)</t>
+  </si>
+  <si>
+    <t>-2.86(0.131)</t>
+  </si>
+  <si>
+    <t>1.0(0.797)</t>
+  </si>
+  <si>
+    <t>-0.0011(0.109)</t>
+  </si>
+  <si>
+    <t>-0.49(0.784)</t>
+  </si>
+  <si>
+    <t>0.95(0.06)*</t>
   </si>
   <si>
     <t>-6.03(0.0)***</t>
   </si>
   <si>
-    <t>-0.0004(0.4)</t>
-  </si>
-  <si>
-    <t>-0.04(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0002(0.3)</t>
-  </si>
-  <si>
-    <t>-2.09(0.2)</t>
-  </si>
-  <si>
-    <t>0.0009(0.8)</t>
-  </si>
-  <si>
-    <t>-3.29(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.002(0.1)*</t>
-  </si>
-  <si>
-    <t>0.92(0.0)***</t>
+    <t>1.0(0.834)</t>
+  </si>
+  <si>
+    <t>-0.0004(0.313)</t>
+  </si>
+  <si>
+    <t>-0.04(0.844)</t>
+  </si>
+  <si>
+    <t>0.98(0.335)</t>
+  </si>
+  <si>
+    <t>-0.0002(0.274)</t>
+  </si>
+  <si>
+    <t>-2.09(0.24)</t>
+  </si>
+  <si>
+    <t>0.98(0.147)</t>
+  </si>
+  <si>
+    <t>0.0009(0.853)</t>
+  </si>
+  <si>
+    <t>-3.29(0.071)*</t>
+  </si>
+  <si>
+    <t>1.0(0.909)</t>
+  </si>
+  <si>
+    <t>-0.002(0.055)*</t>
+  </si>
+  <si>
+    <t>0.17(0.909)</t>
+  </si>
+  <si>
+    <t>0.92(0.012)**</t>
   </si>
   <si>
     <t>-0.0066(0.0)***</t>
@@ -337,58 +397,73 @@
     <t>1.02(1.0)</t>
   </si>
   <si>
-    <t>0.0003(0.5)</t>
-  </si>
-  <si>
-    <t>1.61(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0003(0.3)</t>
-  </si>
-  <si>
-    <t>-0.74(0.5)</t>
-  </si>
-  <si>
-    <t>0.0015(0.9)</t>
-  </si>
-  <si>
-    <t>-1.66(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0029(0.1)*</t>
-  </si>
-  <si>
-    <t>0.36(0.9)</t>
-  </si>
-  <si>
-    <t>0.9(0.1)*</t>
+    <t>0.0003(0.584)</t>
+  </si>
+  <si>
+    <t>1.61(0.989)</t>
+  </si>
+  <si>
+    <t>0.99(0.654)</t>
+  </si>
+  <si>
+    <t>-0.0003(0.286)</t>
+  </si>
+  <si>
+    <t>-0.74(0.728)</t>
+  </si>
+  <si>
+    <t>0.98(0.296)</t>
+  </si>
+  <si>
+    <t>0.0015(0.897)</t>
+  </si>
+  <si>
+    <t>-1.66(0.24)</t>
+  </si>
+  <si>
+    <t>1.0(0.931)</t>
+  </si>
+  <si>
+    <t>-0.0029(0.04)**</t>
+  </si>
+  <si>
+    <t>0.36(0.93)</t>
+  </si>
+  <si>
+    <t>0.9(0.037)**</t>
   </si>
   <si>
     <t>-0.0084(0.0)***</t>
   </si>
   <si>
-    <t>-4.92(0.0)***</t>
-  </si>
-  <si>
-    <t>1.03(1.0)</t>
-  </si>
-  <si>
-    <t>1.84(1.0)</t>
-  </si>
-  <si>
-    <t>1.01(0.9)</t>
-  </si>
-  <si>
-    <t>0.32(0.9)</t>
-  </si>
-  <si>
-    <t>0.96(0.4)</t>
-  </si>
-  <si>
-    <t>0.0013(0.6)</t>
-  </si>
-  <si>
-    <t>-2.53(0.2)</t>
+    <t>-4.92(0.004)***</t>
+  </si>
+  <si>
+    <t>1.03(0.996)</t>
+  </si>
+  <si>
+    <t>0.0009(0.742)</t>
+  </si>
+  <si>
+    <t>1.84(0.989)</t>
+  </si>
+  <si>
+    <t>1.01(0.949)</t>
+  </si>
+  <si>
+    <t>-0.0011(0.183)</t>
+  </si>
+  <si>
+    <t>0.32(0.938)</t>
+  </si>
+  <si>
+    <t>0.96(0.251)</t>
+  </si>
+  <si>
+    <t>0.0013(0.709)</t>
+  </si>
+  <si>
+    <t>-2.53(0.11)</t>
   </si>
 </sst>
 </file>
@@ -798,28 +873,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -831,28 +906,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -864,28 +939,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -908,28 +983,28 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -941,28 +1016,28 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -974,28 +1049,28 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1018,28 +1093,28 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1051,28 +1126,28 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1084,28 +1159,28 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1128,28 +1203,28 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1161,28 +1236,28 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1194,28 +1269,28 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1238,28 +1313,28 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1271,28 +1346,28 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1304,28 +1379,28 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11">
